--- a/data/trans_bre/P53_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>68,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>47,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43,06%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,48</t>
+          <t>-0,75; 13,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 9,23</t>
+          <t>-0,23; 14,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 13,05</t>
+          <t>-12,49; 15,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 13,53</t>
+          <t>-13,42; 16,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 70,57</t>
+          <t>-5,05; 8,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 73,27</t>
+          <t>-6,2; 194,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 114,49</t>
+          <t>-3,96; 182,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 106,93</t>
+          <t>-46,0; 227,49</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-49,21; 257,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-40,58; 152,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,64</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>65,86%</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>144,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 19,06</t>
+          <t>-6,53; 13,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 11,19</t>
+          <t>-8,48; 12,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 15,53</t>
+          <t>-9,08; 13,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 16,68</t>
+          <t>-7,01; 14,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 156,31</t>
+          <t>3,9; 33,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 61,52</t>
+          <t>-32,35; 136,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 100,72</t>
+          <t>-37,16; 101,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 102,4</t>
+          <t>-40,85; 124,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-32,96; 128,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,48; 485,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-18,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-18,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-21,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-24,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,95%</t>
+          <t>-22,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-40,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>-38,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>-45,55%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-47,93%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-53,87%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 15,67</t>
+          <t>-51,01; 10,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,54; 17,33</t>
+          <t>-51,92; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 20,59</t>
+          <t>-54,79; 4,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 18,76</t>
+          <t>-56,88; 3,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 66,95</t>
+          <t>-61,37; 8,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 74,72</t>
+          <t>-77,94; 49,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 97,97</t>
+          <t>-79,33; 38,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 83,89</t>
+          <t>-80,44; 24,69</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-81,3; 14,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-92,58; 68,75</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>11,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,88%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,3</t>
+          <t>-6,1; 8,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 7,01</t>
+          <t>-6,96; 9,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,18</t>
+          <t>-7,15; 9,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 11,87</t>
+          <t>-9,53; 10,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 68,91</t>
+          <t>-5,47; 11,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 37,93</t>
+          <t>-27,36; 71,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 66,95</t>
+          <t>-27,9; 69,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 67,6</t>
+          <t>-29,99; 71,04</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 78,01</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,7; 121,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P53_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,22</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>60,71%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>68,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>47,42%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>43,06%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.256907304039759</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.947086882878041</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.678675147281735</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.072928170749834</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.2515381597766</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.607131289635504</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7523464868453084</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6437594387894916</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5118799714600676</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1309806444918393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 13,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 14,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,49; 15,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,42; 16,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 8,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 194,35</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 182,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-46,0; 227,49</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-49,21; 257,88</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-40,58; 152,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7460149493292643</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.4817804717708207</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.549752098115905</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-12.13239719188329</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.65997458018886</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.06197210104788761</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.01327669862512949</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3685647055935234</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.451292992948534</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4403164622581629</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.2158197648577</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.03342904549512</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.22967357743556</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.3648424556408</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.509069378586432</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.943531908155494</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.034914913511831</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.44862279546147</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.743704251091938</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.482244186815447</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,94</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>29,04%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>15,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>24,21%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>33,84%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>144,46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,53; 13,67</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,48; 12,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; 13,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 14,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 33,01</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-32,35; 136,34</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-37,16; 101,63</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-40,85; 124,21</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-32,96; 128,08</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>14,48; 485,85</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.48663335279495</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.01555369523836281</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.098181165294497</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.360630033926019</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>13.50830622341467</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2904405786224477</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.0007324151248689607</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1778372326966594</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2488202813005215</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.285430018505767</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-18,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-18,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-21,91</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-24,41</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-22,47</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-40,11%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-38,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-45,55%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-47,93%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-53,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.529957201811524</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.67542604748449</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-10.60022459804171</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.039899509116836</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>2.922704876945885</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3235404961630404</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4374234187300826</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4398043276445714</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3570022432864579</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.04840795430550502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-51,01; 10,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-51,92; 11,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-54,79; 4,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-56,88; 3,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-61,37; 8,8</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-77,94; 49,4</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-79,33; 38,91</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-80,44; 24,69</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-81,3; 14,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-92,58; 68,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.67304594189069</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.24682443566494</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.90252906185085</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.19530830299724</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>28.18474478699365</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.363419229050852</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.8215816586544847</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.135717552245906</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.165654060386305</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.154535711614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>11,92%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,76%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>29,88%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-18.79475328781511</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-19.95335907232281</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-21.81695274545156</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-24.78982287727025</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-23.24152733277752</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4010605207316153</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4167125133277649</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4737813809935217</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4918131158414876</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.5691635944213235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-6,1; 8,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 9,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 9,69</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 10,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,47; 11,78</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-27,36; 71,5</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-27,9; 69,93</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-29,99; 71,04</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-37,15; 78,01</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-31,7; 121,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-51.00850334236326</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-53.52643386809449</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-51.63200867957045</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-56.66059603352953</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-63.28424175310808</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.779416232051549</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8210981714881902</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8135958385663412</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8113368660106127</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.9378748029745716</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.92969174358628</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.42656993880183</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.190483537146451</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.958480248665928</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>7.434227677977748</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4940030779610679</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3151142610525042</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2367860750626228</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1478951144915578</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.584431630833356</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.32066795136838</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.531000342450012</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.534481136682603</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.33977976005923</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.049185439704846</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1394732286523775</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0807053928856849</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1417841902491832</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1203827096660448</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2261729850010048</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.098237022894923</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.801113079047954</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.033411434228793</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.898809713335606</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.930854200346494</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2735585473785502</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3128707349074293</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2600127305975287</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3479417244380351</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3330057151628094</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.704550161070598</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.748925887446063</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.69310517795833</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.60125854982901</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.64471028054146</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.715039436996969</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6321400318225366</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7228347979298539</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.753809428957892</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.074304703831322</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
